--- a/action_mobile.xlsx
+++ b/action_mobile.xlsx
@@ -18,9 +18,95 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+  <si>
+    <t>Hành động</t>
+  </si>
+  <si>
+    <t>Giao diện người dùng</t>
+  </si>
+  <si>
+    <t>Đối tượng thay đổi</t>
+  </si>
+  <si>
+    <t>Event - Sự kiện từ người dùng</t>
+  </si>
+  <si>
+    <t>State - Trạng thái trả về</t>
+  </si>
+  <si>
+    <t>Màn hình bắt đầu chạy</t>
+  </si>
+  <si>
+    <t>Kịch bản màn hình</t>
+  </si>
+  <si>
+    <t>Màn hình chứa số và nút run</t>
+  </si>
+  <si>
+    <t>thời gian</t>
+  </si>
+  <si>
+    <t>Bắt đầu chạy start event</t>
+  </si>
+  <si>
+    <t>initstate</t>
+  </si>
+  <si>
+    <t>Nhấn nút chạy</t>
+  </si>
+  <si>
+    <t>Số giảm dần, hiển thị nút pause và reset</t>
+  </si>
+  <si>
+    <t>Chạy run event</t>
+  </si>
+  <si>
+    <t>running state</t>
+  </si>
+  <si>
+    <t>Nhấn nút pause</t>
+  </si>
+  <si>
+    <t>Số dừng hiển thị nút chạy tiếp và reset</t>
+  </si>
+  <si>
+    <t>Tạm dừng: pause event</t>
+  </si>
+  <si>
+    <t>pause state</t>
+  </si>
+  <si>
+    <t>Nhấn nút tiếp tục</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số dđếm ngược tiếp và hiển thị nút pause và reset </t>
+  </si>
+  <si>
+    <t>Tiếp tục resume event</t>
+  </si>
+  <si>
+    <t>completestate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhấn nút reset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sau khi chạy hết hiển thị 0:0 và hiển thị nút set lại như màn hình đầu </t>
+  </si>
+  <si>
+    <t>Đặt lại reset event</t>
+  </si>
+  <si>
+    <t>init state</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +119,59 @@
       <color theme="1"/>
       <name val="Oxygen"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Oxygen"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,9 +186,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,17 +558,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="I7" sqref="I7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
